--- a/dashboard/assets/data_glossary.xlsx
+++ b/dashboard/assets/data_glossary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashtiani\Desktop\WBLCA_Benchmarking\Material Intensity - Publication\Dash App\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github repositories\Wedge\wblca-benchmark-v2-material-use-intensity\dashboard\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDEB171-F604-411D-B2E1-2E918BFF37DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2975FA79-9532-4A95-A0D4-C5F5B5F93FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32730" yWindow="3930" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -351,9 +351,6 @@
   </si>
   <si>
     <t>mui_a1_to_a3</t>
-  </si>
-  <si>
-    <t>kgCO2e/m2</t>
   </si>
   <si>
     <t>eci_a1_to_a3</t>
@@ -519,6 +516,9 @@
   </si>
   <si>
     <t>kgCO₂e</t>
+  </si>
+  <si>
+    <t>kgCO₂e/m2</t>
   </si>
 </sst>
 </file>
@@ -829,8 +829,8 @@
   </sheetPr>
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1530,10 +1530,10 @@
         <v>8</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>107</v>
@@ -1544,13 +1544,13 @@
         <v>8</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="29" x14ac:dyDescent="0.25">
@@ -1561,7 +1561,7 @@
         <v>109</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>108</v>
@@ -1572,24 +1572,24 @@
         <v>8</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="C54" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>7</v>
@@ -1597,13 +1597,13 @@
     </row>
     <row r="55" spans="1:4" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B55" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>7</v>
@@ -1611,13 +1611,13 @@
     </row>
     <row r="56" spans="1:4" ht="29" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B56" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>7</v>
@@ -1625,13 +1625,13 @@
     </row>
     <row r="57" spans="1:4" ht="29" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B57" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>7</v>
@@ -1639,13 +1639,13 @@
     </row>
     <row r="58" spans="1:4" ht="29" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B58" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>7</v>
@@ -1653,13 +1653,13 @@
     </row>
     <row r="59" spans="1:4" ht="29" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B59" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>7</v>
@@ -1667,13 +1667,13 @@
     </row>
     <row r="60" spans="1:4" ht="29" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B60" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>7</v>
@@ -1681,13 +1681,13 @@
     </row>
     <row r="61" spans="1:4" ht="29" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B61" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>7</v>
@@ -1695,13 +1695,13 @@
     </row>
     <row r="62" spans="1:4" ht="29" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B62" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>7</v>
@@ -1709,27 +1709,27 @@
     </row>
     <row r="63" spans="1:4" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B63" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>139</v>
-      </c>
       <c r="D63" s="4" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="29" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>108</v>
